--- a/1.계획/03 (WDF-AI-PJT01) 요구사항정의+명세서 V1.00(20201129-임완식).xlsx
+++ b/1.계획/03 (WDF-AI-PJT01) 요구사항정의+명세서 V1.00(20201129-임완식).xlsx
@@ -13,7 +13,7 @@
     <sheet name="9 CODE" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">요구사항정의·명세서!$B$3:$M$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">요구사항정의·명세서!$B$3:$M$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">개정이력!$B$1:$J$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">표지!$A$1:$F$11</definedName>
   </definedNames>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="112">
   <si>
     <t>ACTIVITY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -457,10 +457,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>① 트레이딩 시스템 사용자 가이드 및 연수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>퀀트 전략에 따른 종목 추천 검증</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -480,6 +476,22 @@
   <si>
     <t>① 버튼 및 세로 스크롤을 통해 조작이 가능해야 한다.
 ② 웹 또는 cs 환경으로 구성하고 조작 및 접근성이 용이하게 구성되어야 한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-017</t>
+  </si>
+  <si>
+    <t>경진대회 구 대회 참여 및 구성 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 트레이딩 시스템 사용자 가이드 및 연수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 📊Stock Market Analysis 📈 + Prediction using LSTM 참여 및 해당 코드 토론 및 분석
+https://www.kaggle.com/faressayah/stock-market-analysis-prediction-using-lstm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1281,6 +1293,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
@@ -1311,6 +1336,33 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="178" fontId="18" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="18" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="18" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1392,51 +1444,11 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="18" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="18" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="18" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1982,7 +1994,7 @@
         <xdr:cNvPr id="2" name="그룹 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5DB1D5B-C7F2-40FE-9563-A21DEED154D2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5DB1D5B-C7F2-40FE-9563-A21DEED154D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2001,7 +2013,7 @@
           <xdr:cNvPr id="3" name="그림 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0EED906-2BFD-42A1-8DDA-CFAF17CA2857}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0EED906-2BFD-42A1-8DDA-CFAF17CA2857}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2029,7 +2041,7 @@
           <xdr:cNvPr id="4" name="그림 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1AB4D237-7EE4-446C-AED1-FCF6BD48E055}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB4D237-7EE4-446C-AED1-FCF6BD48E055}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2057,7 +2069,7 @@
           <xdr:cNvPr id="5" name="그림 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EED65917-E194-4687-B9BA-2D27FED82377}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED65917-E194-4687-B9BA-2D27FED82377}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2101,7 +2113,7 @@
         <xdr:cNvPr id="8" name="직사각형 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0995DF80-A756-4B87-9E8B-120C598A0DA3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0995DF80-A756-4B87-9E8B-120C598A0DA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2167,7 +2179,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C44B994A-FF8C-44E9-ACC7-7500ABC4D058}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C44B994A-FF8C-44E9-ACC7-7500ABC4D058}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,8 +2209,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TB_요구사항" displayName="TB_요구사항" ref="B3:M19" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="B3:M19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TB_요구사항" displayName="TB_요구사항" ref="B3:M20" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="B3:M20"/>
   <tableColumns count="12">
     <tableColumn id="1" name="No" dataDxfId="17">
       <calculatedColumnFormula>ROW()-3</calculatedColumnFormula>
@@ -2556,23 +2568,23 @@
     </row>
     <row r="2" spans="1:6" ht="40.15" customHeight="1">
       <c r="A2" s="15"/>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" ht="69.95" customHeight="1">
       <c r="A3" s="16"/>
-      <c r="B3" s="55" t="str">
+      <c r="B3" s="59" t="str">
         <f>IF(ISBLANK(C6),"",C6)</f>
         <v>『퀀트전략』을 활용한 주식 인공지능 자동 트레이닝 시스템 "B &amp; H"</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" ht="40.15" customHeight="1">
@@ -2594,30 +2606,30 @@
       <c r="B6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="50"/>
+      <c r="D6" s="54"/>
     </row>
     <row r="7" spans="1:6" ht="26.1" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="54"/>
+      <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:6" ht="26.1" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="52"/>
+      <c r="D8" s="56"/>
     </row>
     <row r="9" spans="1:6" ht="26.1" customHeight="1">
       <c r="A9" s="2"/>
@@ -2645,8 +2657,8 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="15.6"/>
-    <row r="13" spans="1:6" ht="15.6"/>
+    <row r="12" spans="1:6"/>
+    <row r="13" spans="1:6"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="10T5yLWik4CvadL2sivoO6pz7llNHZzWmVnykZSqYRm5KMuyrkslj8neNh1xqJSk40gFgNTbvO1FroqASSAFzQ==" saltValue="9EiICJaZkE6BVWJpUiwUUA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
@@ -2691,76 +2703,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" s="21" customFormat="1" ht="37.5" customHeight="1">
-      <c r="B1" s="80" t="str">
+      <c r="B1" s="61" t="str">
         <f>표지!C6</f>
         <v>『퀀트전략』을 활용한 주식 인공지능 자동 트레이닝 시스템 "B &amp; H"</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="2:10" s="21" customFormat="1" ht="22.15" customHeight="1">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="83" t="str">
+      <c r="C2" s="72"/>
+      <c r="D2" s="64" t="str">
         <f>IF(ISBLANK(표지!C7),"",표지!C7)</f>
         <v>기획</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="30" t="str">
         <f>표지!B8</f>
         <v>ACTIVITY</v>
       </c>
-      <c r="H2" s="85" t="s">
+      <c r="H2" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="2:10" s="21" customFormat="1" ht="22.15" customHeight="1" thickBot="1">
-      <c r="B3" s="60" t="str">
+      <c r="B3" s="73" t="str">
         <f>표지!B9</f>
         <v>Creative INFO.</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="84" t="str">
+      <c r="C3" s="74"/>
+      <c r="D3" s="65" t="str">
         <f>TEXT(표지!C9,"YYYY.MM.DD(aaa)")&amp;" / "&amp;표지!D9</f>
         <v>2020.12.02(수) / 임완식</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="31" t="str">
         <f>표지!B10</f>
         <v>Update INFO.</v>
       </c>
-      <c r="H3" s="87" t="str">
+      <c r="H3" s="68" t="str">
         <f>TEXT(표지!C10,"YYYY.MM.DD(aaa)")&amp;" / "&amp;표지!D10</f>
         <v xml:space="preserve">1900.01.00(토) / </v>
       </c>
-      <c r="I3" s="87"/>
-      <c r="J3" s="88"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="2:10" customFormat="1" ht="10.15" customHeight="1"/>
     <row r="5" spans="2:10" s="21" customFormat="1" ht="30.2" customHeight="1">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="77"/>
     </row>
     <row r="6" spans="2:10" ht="21.2" customHeight="1">
       <c r="B6" s="32" t="s">
@@ -2775,11 +2787,11 @@
       <c r="E6" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="67"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
       <c r="I6" s="32" t="s">
         <v>3</v>
       </c>
@@ -2792,7 +2804,7 @@
         <f t="shared" ref="B7:B18" si="0">ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="C7" s="91">
+      <c r="C7" s="49">
         <v>44167</v>
       </c>
       <c r="D7" s="43" t="s">
@@ -2801,11 +2813,11 @@
       <c r="E7" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="70"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="83"/>
       <c r="I7" s="43" t="s">
         <v>69</v>
       </c>
@@ -2819,9 +2831,9 @@
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="73"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="86"/>
       <c r="I8" s="44"/>
       <c r="J8" s="44"/>
     </row>
@@ -2833,9 +2845,9 @@
       <c r="C9" s="44"/>
       <c r="D9" s="44"/>
       <c r="E9" s="44"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="76"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="89"/>
       <c r="I9" s="44"/>
       <c r="J9" s="44"/>
     </row>
@@ -2847,9 +2859,9 @@
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
       <c r="E10" s="44"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="73"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="86"/>
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
     </row>
@@ -2917,9 +2929,9 @@
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
       <c r="E15" s="44"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="89"/>
       <c r="I15" s="44"/>
       <c r="J15" s="44"/>
     </row>
@@ -2931,9 +2943,9 @@
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="73"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="86"/>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
     </row>
@@ -2945,9 +2957,9 @@
       <c r="C17" s="44"/>
       <c r="D17" s="44"/>
       <c r="E17" s="44"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="76"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="89"/>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
     </row>
@@ -2959,9 +2971,9 @@
       <c r="C18" s="48"/>
       <c r="D18" s="48"/>
       <c r="E18" s="48"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="79"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="92"/>
       <c r="I18" s="48"/>
       <c r="J18" s="48"/>
     </row>
@@ -2972,28 +2984,23 @@
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
     </row>
-    <row r="20" spans="2:10" ht="14.25" hidden="1">
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-    </row>
-    <row r="21" spans="2:10" ht="14.25" hidden="1">
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
+    <row r="20" spans="2:10" hidden="1">
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+    </row>
+    <row r="21" spans="2:10" hidden="1">
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="hQB1ma9NjBbCNcEK55a86vzToxauiabNsZyuWqjRFtPMfcCPiQarql4k9UOWo2JoLqqgw/xkDQXPdbWhc7mjsQ==" saltValue="AB8S9JZdDkz2r79iB9fPbg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="19">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B2:C2"/>
@@ -3008,6 +3015,11 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3036,13 +3048,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5"/>
@@ -3063,21 +3075,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="35.1" customHeight="1">
-      <c r="B1" s="89" t="str">
+      <c r="B1" s="93" t="str">
         <f>표지!C6</f>
         <v>『퀀트전략』을 활용한 주식 인공지능 자동 트레이닝 시스템 "B &amp; H"</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="2:13" ht="4.9000000000000004" customHeight="1"/>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="24">
@@ -3120,7 +3132,7 @@
     </row>
     <row r="4" spans="2:13" ht="24">
       <c r="B4" s="38">
-        <f t="shared" ref="B4:B19" si="0">ROW()-3</f>
+        <f t="shared" ref="B4:B20" si="0">ROW()-3</f>
         <v>1</v>
       </c>
       <c r="C4" s="38" t="s">
@@ -3199,11 +3211,11 @@
       <c r="D6" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="E6" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>104</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>105</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>79</v>
@@ -3234,7 +3246,7 @@
       <c r="D7" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="50" t="s">
         <v>83</v>
       </c>
       <c r="F7" s="40" t="s">
@@ -3255,8 +3267,8 @@
       <c r="K7" s="42">
         <v>44165</v>
       </c>
-      <c r="L7" s="93"/>
-      <c r="M7" s="94"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="52"/>
     </row>
     <row r="8" spans="2:13" ht="36">
       <c r="B8" s="38">
@@ -3269,11 +3281,11 @@
       <c r="D8" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="92" t="s">
+      <c r="E8" s="50" t="s">
         <v>102</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G8" s="41" t="s">
         <v>79</v>
@@ -3290,10 +3302,10 @@
       <c r="K8" s="42">
         <v>44165</v>
       </c>
-      <c r="L8" s="93"/>
-      <c r="M8" s="94"/>
-    </row>
-    <row r="9" spans="2:13" ht="132">
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
+    </row>
+    <row r="9" spans="2:13" ht="60">
       <c r="B9" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3302,19 +3314,19 @@
         <v>48</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="92" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="92" t="s">
-        <v>84</v>
+        <v>74</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>111</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>79</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="I9" s="38" t="s">
         <v>32</v>
@@ -3325,12 +3337,10 @@
       <c r="K9" s="42">
         <v>44165</v>
       </c>
-      <c r="L9" s="93"/>
-      <c r="M9" s="92" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="60">
+      <c r="L9" s="51"/>
+      <c r="M9" s="52"/>
+    </row>
+    <row r="10" spans="2:13" ht="132">
       <c r="B10" s="38">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3339,22 +3349,22 @@
         <v>49</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>88</v>
+        <v>77</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>84</v>
       </c>
       <c r="G10" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="38" t="s">
-        <v>23</v>
+      <c r="H10" s="41" t="s">
+        <v>80</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J10" s="41" t="s">
         <v>15</v>
@@ -3362,8 +3372,10 @@
       <c r="K10" s="42">
         <v>44165</v>
       </c>
-      <c r="L10" s="42"/>
-      <c r="M10" s="39"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="50" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="11" spans="2:13" ht="60">
       <c r="B11" s="38">
@@ -3377,10 +3389,10 @@
         <v>16</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G11" s="41" t="s">
         <v>79</v>
@@ -3389,18 +3401,18 @@
         <v>23</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J11" s="41" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="K11" s="42">
         <v>44165</v>
       </c>
       <c r="L11" s="42"/>
-      <c r="M11" s="40"/>
-    </row>
-    <row r="12" spans="2:13" ht="48">
+      <c r="M11" s="39"/>
+    </row>
+    <row r="12" spans="2:13" ht="60">
       <c r="B12" s="38">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3412,28 +3424,30 @@
         <v>16</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G12" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="41" t="s">
-        <v>80</v>
+      <c r="H12" s="38" t="s">
+        <v>23</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="41"/>
+        <v>38</v>
+      </c>
+      <c r="J12" s="41" t="s">
+        <v>96</v>
+      </c>
       <c r="K12" s="42">
         <v>44165</v>
       </c>
       <c r="L12" s="42"/>
       <c r="M12" s="40"/>
     </row>
-    <row r="13" spans="2:13" ht="84">
+    <row r="13" spans="2:13" ht="48">
       <c r="B13" s="38">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3445,10 +3459,10 @@
         <v>16</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G13" s="41" t="s">
         <v>79</v>
@@ -3457,18 +3471,16 @@
         <v>80</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="41" t="s">
-        <v>97</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J13" s="41"/>
       <c r="K13" s="42">
         <v>44165</v>
       </c>
       <c r="L13" s="42"/>
       <c r="M13" s="40"/>
     </row>
-    <row r="14" spans="2:13" ht="36">
+    <row r="14" spans="2:13" ht="84">
       <c r="B14" s="38">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3480,10 +3492,10 @@
         <v>16</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G14" s="41" t="s">
         <v>79</v>
@@ -3492,18 +3504,18 @@
         <v>80</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J14" s="41" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="K14" s="42">
         <v>44165</v>
       </c>
       <c r="L14" s="42"/>
-      <c r="M14" s="39"/>
-    </row>
-    <row r="15" spans="2:13" ht="60">
+      <c r="M14" s="40"/>
+    </row>
+    <row r="15" spans="2:13" ht="36">
       <c r="B15" s="38">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3515,10 +3527,10 @@
         <v>16</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G15" s="41" t="s">
         <v>79</v>
@@ -3538,7 +3550,7 @@
       <c r="L15" s="42"/>
       <c r="M15" s="39"/>
     </row>
-    <row r="16" spans="2:13" ht="48">
+    <row r="16" spans="2:13" ht="60">
       <c r="B16" s="38">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3547,13 +3559,13 @@
         <v>55</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G16" s="41" t="s">
         <v>79</v>
@@ -3562,7 +3574,7 @@
         <v>80</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J16" s="41" t="s">
         <v>15</v>
@@ -3571,7 +3583,7 @@
         <v>44165</v>
       </c>
       <c r="L16" s="42"/>
-      <c r="M16" s="40"/>
+      <c r="M16" s="39"/>
     </row>
     <row r="17" spans="2:13" ht="48">
       <c r="B17" s="38">
@@ -3585,10 +3597,10 @@
         <v>65</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G17" s="41" t="s">
         <v>79</v>
@@ -3597,7 +3609,7 @@
         <v>80</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J17" s="41" t="s">
         <v>15</v>
@@ -3606,9 +3618,9 @@
         <v>44165</v>
       </c>
       <c r="L17" s="42"/>
-      <c r="M17" s="39"/>
-    </row>
-    <row r="18" spans="2:13" ht="120">
+      <c r="M17" s="40"/>
+    </row>
+    <row r="18" spans="2:13" ht="48">
       <c r="B18" s="38">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3617,13 +3629,13 @@
         <v>57</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G18" s="41" t="s">
         <v>79</v>
@@ -3632,7 +3644,7 @@
         <v>80</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J18" s="41" t="s">
         <v>15</v>
@@ -3643,7 +3655,7 @@
       <c r="L18" s="42"/>
       <c r="M18" s="39"/>
     </row>
-    <row r="19" spans="2:13" ht="36">
+    <row r="19" spans="2:13" ht="120">
       <c r="B19" s="38">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3655,15 +3667,15 @@
         <v>16</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G19" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="38" t="s">
+      <c r="H19" s="41" t="s">
         <v>80</v>
       </c>
       <c r="I19" s="38" t="s">
@@ -3678,19 +3690,40 @@
       <c r="L19" s="42"/>
       <c r="M19" s="39"/>
     </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="6"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="5"/>
+    <row r="20" spans="2:13" ht="36">
+      <c r="B20" s="38">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="42">
+        <v>44165</v>
+      </c>
+      <c r="L20" s="42"/>
+      <c r="M20" s="39"/>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="6"/>
@@ -5261,17 +5294,31 @@
       <c r="M132" s="5"/>
     </row>
     <row r="133" spans="2:13">
-      <c r="B133" s="7"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="12"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="12"/>
-      <c r="H133" s="7"/>
-      <c r="I133" s="7"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="7"/>
-      <c r="L133" s="7"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="6"/>
+      <c r="L133" s="6"/>
+      <c r="M133" s="5"/>
+    </row>
+    <row r="134" spans="2:13">
+      <c r="B134" s="7"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="7"/>
+      <c r="L134" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5290,13 +5337,13 @@
           <x14:formula1>
             <xm:f>'9 CODE'!$B$3:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>I4:I19</xm:sqref>
+          <xm:sqref>I4:I20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'9 CODE'!$D$3:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D19</xm:sqref>
+          <xm:sqref>D4:D20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/1.계획/03 (WDF-AI-PJT01) 요구사항정의+명세서 V1.00(20201129-임완식).xlsx
+++ b/1.계획/03 (WDF-AI-PJT01) 요구사항정의+명세서 V1.00(20201129-임완식).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-26190" yWindow="150" windowWidth="25440" windowHeight="14310" activeTab="2"/>
+    <workbookView xWindow="-26190" yWindow="150" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
@@ -357,6 +357,128 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>① 퀀트를 활용한 전략 알고리즘 예측도 50% 이상
+② 학습에 대한 결과 디스플레이
+③ CNN/RNN 활용후 예측도 상위 모델 활용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 투자전략 소개서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 화면 구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 사용자 로그인 시 그날의 추천 종목 디스플레이
+② 로그인/로그아웃 기능
+③ ID, 계좌번호 로그인 시 현재 투자 내역 디스플레이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 다양한 투자 기법에 따른 사용 투자전략 정의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 구성 화면에 최적화 필요
+② 간편회원가입이므로 기타 정보를 모두 입력 가능하게 화면 구성해야 함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래종목 설정 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 종목에 대한 조회, 삽입, 수정, 삭제에 대한 기능 제공
+② 매수/매도 여부에 대한 사용자 입력 필요
+③ 자동 매매 시작과 중지 입력 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 거래에 대한 메시지 로그를 화면에 디스플레이
+② 오류에 대한 메시지 로그를 화면에 디스플레이 하는 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 로그인, 아이디/비밀번호 찾기 지원, 로그아웃은 설정 내 별도로 관리
+② 회원가입: 간편회원가입 지원
+③ 아이디/패스워드 로그인만 지원
+④ 회원정보 수정: 성명, 아이디, 계좌번호, 사번(예시) 등 간략한 개인정보 내용 수정 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영자 모니터링 기능 제외</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소셜로그인 제외
+운영자 모니터링 기능 제외</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 일괄 매수/매도 중지 기능
+② 로그인 제어: 현재 로그인 상태에서 로그상태로 변경
+③ 개인정보 수정: 회원정보를 수정하는 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 현재 보유중인 종목 검색 기능 제공
+② 과거 거래 기록 조회 기능
+③ 과거 최근 추천종목 조회 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 연수 및 가이드 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀀트 전략에 따른 종목 추천 검증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 퀀트 전략으로 분석된 추천 종목 목록에 대한 실 주가 추이 분석을 통한 검증 수행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그 처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단부터 시스템영역- 메뉴 (메뉴, 검색 , 거래,  마이페이지) &gt;
+레이아웃 배치를 가이드 라인으로 한다. 단 설계 진행에 따라 변경될 수 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 버튼 및 세로 스크롤을 통해 조작이 가능해야 한다.
+② 웹 또는 cs 환경으로 구성하고 조작 및 접근성이 용이하게 구성되어야 한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-017</t>
+  </si>
+  <si>
+    <t>경진대회 구 대회 참여 및 구성 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 트레이딩 시스템 사용자 가이드 및 연수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 📊Stock Market Analysis 📈 + Prediction using LSTM 참여 및 해당 코드 토론 및 분석
+https://www.kaggle.com/faressayah/stock-market-analysis-prediction-using-lstm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>① 우선 장 시작전(오전 8시 30분 ~ 9시)에
 보유한 종목의 목표가로 매도주문을 자동적으로 등록
 ② 장 중 실시간 자동매수 기능. 매수가에 오면 자동으로 매수주문을 걸어줌.
@@ -365,133 +487,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>① 퀀트를 활용한 전략 알고리즘 예측도 50% 이상
-② 학습에 대한 결과 디스플레이
-③ CNN/RNN 활용후 예측도 상위 모델 활용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용 투자전략 소개서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인 화면 구성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① 사용자 로그인 시 그날의 추천 종목 디스플레이
-② 로그인/로그아웃 기능
-③ ID, 계좌번호 로그인 시 현재 투자 내역 디스플레이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① 다양한 투자 기법에 따른 사용 투자전략 정의</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① 구성 화면에 최적화 필요
-② 간편회원가입이므로 기타 정보를 모두 입력 가능하게 화면 구성해야 함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① T2 모바일의 메뉴와 카테고리 등 메뉴가 정리 된 메뉴
-② 상단 Left 메뉴 아이콘 터치 시 좌에서 우로 펼치기 메뉴가 나타난다.
-③ 닫기 버튼 또는 단말 “이전” 키 터치 시 Left 메뉴 닫침
-④ 메뉴 구성: 티처빌 서비스, 카테고리, 인기코너, 최근 본 연수 썸네일 리스트
-⑥ 티처빌 서비스: GNB 메뉴를 노출, 터치 시 홈화면 해당 메뉴로 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래종목 설정 기능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① 종목에 대한 조회, 삽입, 수정, 삭제에 대한 기능 제공
-② 매수/매도 여부에 대한 사용자 입력 필요
-③ 자동 매매 시작과 중지 입력 필요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① 거래에 대한 메시지 로그를 화면에 디스플레이
-② 오류에 대한 메시지 로그를 화면에 디스플레이 하는 기능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① 로그인, 아이디/비밀번호 찾기 지원, 로그아웃은 설정 내 별도로 관리
-② 회원가입: 간편회원가입 지원
-③ 아이디/패스워드 로그인만 지원
-④ 회원정보 수정: 성명, 아이디, 계좌번호, 사번(예시) 등 간략한 개인정보 내용 수정 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>운영자 모니터링 기능 제외</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소셜로그인 제외
-운영자 모니터링 기능 제외</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① 일괄 매수/매도 중지 기능
-② 로그인 제어: 현재 로그인 상태에서 로그상태로 변경
-③ 개인정보 수정: 회원정보를 수정하는 기능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴 구성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① 현재 보유중인 종목 검색 기능 제공
-② 과거 거래 기록 조회 기능
-③ 과거 최근 추천종목 조회 기능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 연수 및 가이드 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀀트 전략에 따른 종목 추천 검증</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① 퀀트 전략으로 분석된 추천 종목 목록에 대한 실 주가 추이 분석을 통한 검증 수행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그 처리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단부터 시스템영역- 메뉴 (메뉴, 검색 , 거래,  마이페이지) &gt;
-레이아웃 배치를 가이드 라인으로 한다. 단 설계 진행에 따라 변경될 수 있음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① 버튼 및 세로 스크롤을 통해 조작이 가능해야 한다.
-② 웹 또는 cs 환경으로 구성하고 조작 및 접근성이 용이하게 구성되어야 한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>REQ-017</t>
-  </si>
-  <si>
-    <t>경진대회 구 대회 참여 및 구성 분석</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① 트레이딩 시스템 사용자 가이드 및 연수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① 📊Stock Market Analysis 📈 + Prediction using LSTM 참여 및 해당 코드 토론 및 분석
-https://www.kaggle.com/faressayah/stock-market-analysis-prediction-using-lstm</t>
+    <t>① 상단 Left 메뉴 아이콘 터치 시 좌에서 우로 펼치기 메뉴가 나타난다.
+② 닫기 버튼 또는 단말 “이전” 키 터치 시 Left 메뉴 닫침
+③ 메뉴 구성: 로그인, 로그아웃, 매수/매도, 이력조회</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1336,33 +1334,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="18" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="18" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1443,6 +1414,33 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="18" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="18" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="18" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="18" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1994,7 +1992,7 @@
         <xdr:cNvPr id="2" name="그룹 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5DB1D5B-C7F2-40FE-9563-A21DEED154D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5DB1D5B-C7F2-40FE-9563-A21DEED154D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2013,7 +2011,7 @@
           <xdr:cNvPr id="3" name="그림 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0EED906-2BFD-42A1-8DDA-CFAF17CA2857}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0EED906-2BFD-42A1-8DDA-CFAF17CA2857}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2041,7 +2039,7 @@
           <xdr:cNvPr id="4" name="그림 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB4D237-7EE4-446C-AED1-FCF6BD48E055}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1AB4D237-7EE4-446C-AED1-FCF6BD48E055}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2069,7 +2067,7 @@
           <xdr:cNvPr id="5" name="그림 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED65917-E194-4687-B9BA-2D27FED82377}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EED65917-E194-4687-B9BA-2D27FED82377}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2113,7 +2111,7 @@
         <xdr:cNvPr id="8" name="직사각형 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0995DF80-A756-4B87-9E8B-120C598A0DA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0995DF80-A756-4B87-9E8B-120C598A0DA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2179,7 +2177,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C44B994A-FF8C-44E9-ACC7-7500ABC4D058}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C44B994A-FF8C-44E9-ACC7-7500ABC4D058}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2703,76 +2701,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" s="21" customFormat="1" ht="37.5" customHeight="1">
-      <c r="B1" s="61" t="str">
+      <c r="B1" s="84" t="str">
         <f>표지!C6</f>
         <v>『퀀트전략』을 활용한 주식 인공지능 자동 트레이닝 시스템 "B &amp; H"</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
     </row>
     <row r="2" spans="2:10" s="21" customFormat="1" ht="22.15" customHeight="1">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="64" t="str">
+      <c r="C2" s="63"/>
+      <c r="D2" s="87" t="str">
         <f>IF(ISBLANK(표지!C7),"",표지!C7)</f>
         <v>기획</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="30" t="str">
         <f>표지!B8</f>
         <v>ACTIVITY</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
     </row>
     <row r="3" spans="2:10" s="21" customFormat="1" ht="22.15" customHeight="1" thickBot="1">
-      <c r="B3" s="73" t="str">
+      <c r="B3" s="64" t="str">
         <f>표지!B9</f>
         <v>Creative INFO.</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="65" t="str">
+      <c r="C3" s="65"/>
+      <c r="D3" s="88" t="str">
         <f>TEXT(표지!C9,"YYYY.MM.DD(aaa)")&amp;" / "&amp;표지!D9</f>
         <v>2020.12.02(수) / 임완식</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
       <c r="G3" s="31" t="str">
         <f>표지!B10</f>
         <v>Update INFO.</v>
       </c>
-      <c r="H3" s="68" t="str">
+      <c r="H3" s="91" t="str">
         <f>TEXT(표지!C10,"YYYY.MM.DD(aaa)")&amp;" / "&amp;표지!D10</f>
         <v xml:space="preserve">1900.01.00(토) / </v>
       </c>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="92"/>
     </row>
     <row r="4" spans="2:10" customFormat="1" ht="10.15" customHeight="1"/>
     <row r="5" spans="2:10" s="21" customFormat="1" ht="30.2" customHeight="1">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="77"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="68"/>
     </row>
     <row r="6" spans="2:10" ht="21.2" customHeight="1">
       <c r="B6" s="32" t="s">
@@ -2787,11 +2785,11 @@
       <c r="E6" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="78" t="s">
+      <c r="F6" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="71"/>
       <c r="I6" s="32" t="s">
         <v>3</v>
       </c>
@@ -2813,11 +2811,11 @@
       <c r="E7" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="81" t="s">
+      <c r="F7" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="82"/>
-      <c r="H7" s="83"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="74"/>
       <c r="I7" s="43" t="s">
         <v>69</v>
       </c>
@@ -2831,9 +2829,9 @@
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="86"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="77"/>
       <c r="I8" s="44"/>
       <c r="J8" s="44"/>
     </row>
@@ -2845,9 +2843,9 @@
       <c r="C9" s="44"/>
       <c r="D9" s="44"/>
       <c r="E9" s="44"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="89"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="80"/>
       <c r="I9" s="44"/>
       <c r="J9" s="44"/>
     </row>
@@ -2859,9 +2857,9 @@
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
       <c r="E10" s="44"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="86"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
     </row>
@@ -2929,9 +2927,9 @@
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
       <c r="E15" s="44"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="89"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="80"/>
       <c r="I15" s="44"/>
       <c r="J15" s="44"/>
     </row>
@@ -2943,9 +2941,9 @@
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="86"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
     </row>
@@ -2957,9 +2955,9 @@
       <c r="C17" s="44"/>
       <c r="D17" s="44"/>
       <c r="E17" s="44"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="89"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="80"/>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
     </row>
@@ -2971,9 +2969,9 @@
       <c r="C18" s="48"/>
       <c r="D18" s="48"/>
       <c r="E18" s="48"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="92"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="83"/>
       <c r="I18" s="48"/>
       <c r="J18" s="48"/>
     </row>
@@ -2985,22 +2983,27 @@
       <c r="F19" s="26"/>
     </row>
     <row r="20" spans="2:10" hidden="1">
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
     </row>
     <row r="21" spans="2:10" hidden="1">
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="hQB1ma9NjBbCNcEK55a86vzToxauiabNsZyuWqjRFtPMfcCPiQarql4k9UOWo2JoLqqgw/xkDQXPdbWhc7mjsQ==" saltValue="AB8S9JZdDkz2r79iB9fPbg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="19">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B2:C2"/>
@@ -3015,11 +3018,6 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3051,10 +3049,10 @@
   <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5"/>
@@ -3177,10 +3175,10 @@
         <v>74</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="41" t="s">
         <v>79</v>
@@ -3212,10 +3210,10 @@
         <v>74</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>79</v>
@@ -3250,7 +3248,7 @@
         <v>83</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" s="41" t="s">
         <v>79</v>
@@ -3282,10 +3280,10 @@
         <v>74</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G8" s="41" t="s">
         <v>79</v>
@@ -3317,10 +3315,10 @@
         <v>74</v>
       </c>
       <c r="E9" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="40" t="s">
         <v>109</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>111</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>79</v>
@@ -3355,7 +3353,7 @@
         <v>78</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="G10" s="41" t="s">
         <v>79</v>
@@ -3389,10 +3387,10 @@
         <v>16</v>
       </c>
       <c r="E11" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="40" t="s">
         <v>87</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>88</v>
       </c>
       <c r="G11" s="41" t="s">
         <v>79</v>
@@ -3424,10 +3422,10 @@
         <v>16</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G12" s="41" t="s">
         <v>79</v>
@@ -3439,7 +3437,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K12" s="42">
         <v>44165</v>
@@ -3459,10 +3457,10 @@
         <v>16</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G13" s="41" t="s">
         <v>79</v>
@@ -3495,7 +3493,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G14" s="41" t="s">
         <v>79</v>
@@ -3507,7 +3505,7 @@
         <v>38</v>
       </c>
       <c r="J14" s="41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K14" s="42">
         <v>44165</v>
@@ -3527,10 +3525,10 @@
         <v>16</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" s="41" t="s">
         <v>79</v>
@@ -3565,7 +3563,7 @@
         <v>19</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G16" s="41" t="s">
         <v>79</v>
@@ -3600,7 +3598,7 @@
         <v>20</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G17" s="41" t="s">
         <v>79</v>
@@ -3635,7 +3633,7 @@
         <v>21</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G18" s="41" t="s">
         <v>79</v>
@@ -3655,7 +3653,7 @@
       <c r="L18" s="42"/>
       <c r="M18" s="39"/>
     </row>
-    <row r="19" spans="2:13" ht="120">
+    <row r="19" spans="2:13" ht="72">
       <c r="B19" s="38">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3667,10 +3665,10 @@
         <v>16</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="G19" s="41" t="s">
         <v>79</v>
@@ -3696,7 +3694,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D20" s="38" t="s">
         <v>16</v>
@@ -3705,7 +3703,7 @@
         <v>18</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G20" s="41" t="s">
         <v>79</v>
